--- a/data/prices/regelleistung/RESULT_OVERVIEW_CAPACITY_MARKET_aFRR_2026-02-02_2026-02-02.xlsx
+++ b/data/prices/regelleistung/RESULT_OVERVIEW_CAPACITY_MARKET_aFRR_2026-02-02_2026-02-02.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="001" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -47,19 +47,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -176,6 +179,906 @@
         <is>
           <t>GERMANY_SUM_OF_OFFERED_CAPACITY_[MW]</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>POS_00_04</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>-133.0</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1887.0</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>4326.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>POS_04_08</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>-115.0</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>2089.0</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>4105.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>POS_08_12</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>-137.0</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>3881.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>POS_12_16</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>-129.0</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>2068.0</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>4061.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>POS_16_20</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>-113.0</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>2084.0</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>4062.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>POS_20_24</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>-115.0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>1943.0</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>4445.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>NEG_00_04</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>1854.0</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>-100.0</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>3490.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>NEG_04_08</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>1721.0</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>-100.0</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>3219.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>NEG_08_12</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>1816.0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>-20.0</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>3348.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>NEG_12_16</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>-20.0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>3137.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>NEG_16_20</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>1849.0</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T12" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" s="3" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>3516.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>46055.0</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>aFRR</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>NEG_20_24</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>-40.0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>1753.0</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" s="3" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <v>3544.0</v>
       </c>
     </row>
   </sheetData>
